--- a/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\10.Direccions_generals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{303BC794-CFC6-4D77-9AAB-437C94348FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F454501F-E449-454C-AE55-76CC0C74D084}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A7AA6-0E34-443B-9260-115EBB753858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direccions generals" sheetId="5" r:id="rId1"/>
@@ -233,30 +233,6 @@
     <t>Direcció General de Serveis Digitals i Experiència Ciutadana</t>
   </si>
   <si>
-    <t>Delegació Territorial del Govern de la Generalitat a Barcelona</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat a Girona</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat a Lleida</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat a Tarragona</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat a les Terres de l'Ebre</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat a la Catalunya Central</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat a l'Alt Pirineu i Aran</t>
-  </si>
-  <si>
-    <t>Delegació Territorial del Govern de la Generalitat al Penedès</t>
-  </si>
-  <si>
     <t>Direcció General d'Empreses Agroalimentàries, Qualitat i Gastronomia</t>
   </si>
   <si>
@@ -377,9 +353,6 @@
     <t>Direcció General d'Educació Inclusiva i Llengües</t>
   </si>
   <si>
-    <t>Direcció General de la Representació del Govern a l'Exterior i de la Unió Europea</t>
-  </si>
-  <si>
     <t>Direcció General de Planificació i Recerca en Salut</t>
   </si>
   <si>
@@ -426,6 +399,33 @@
   </si>
   <si>
     <t>Direcció General de Bon Govern, Innovació i Qualitat Democràtiques</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a Barcelona</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a Girona</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a la Catalunya Central</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a l'Alt Pirineu i Aran</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a les Terres de l'Ebre</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a Lleida</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern a Tarragona</t>
+  </si>
+  <si>
+    <t>Delegació Territorial del Govern al Penedès</t>
+  </si>
+  <si>
+    <t>Direcció General d'Afers de la Unió Europea</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1191,7 @@
         <v>19819</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C13" s="8">
         <v>6</v>
@@ -1233,7 +1233,7 @@
         <v>542</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" s="8">
         <v>6</v>
@@ -1247,7 +1247,7 @@
         <v>13599</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
@@ -1261,7 +1261,7 @@
         <v>669</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C18" s="8">
         <v>6</v>
@@ -1275,7 +1275,7 @@
         <v>674</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -1289,7 +1289,7 @@
         <v>15432</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C20" s="8">
         <v>6</v>
@@ -1303,7 +1303,7 @@
         <v>15433</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
@@ -1317,7 +1317,7 @@
         <v>11898</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C22" s="8">
         <v>6</v>
@@ -1331,7 +1331,7 @@
         <v>680</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C23" s="8">
         <v>6</v>
@@ -1345,7 +1345,7 @@
         <v>685</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C24" s="8">
         <v>6</v>
@@ -1359,7 +1359,7 @@
         <v>20432</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C25" s="8">
         <v>6</v>
@@ -1373,7 +1373,7 @@
         <v>11010</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C26" s="8">
         <v>6</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8">
         <v>6</v>
@@ -1513,7 +1513,7 @@
         <v>21663</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C36" s="8">
         <v>1599</v>
@@ -1527,7 +1527,7 @@
         <v>20884</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C37" s="8">
         <v>1599</v>
@@ -1541,7 +1541,7 @@
         <v>20885</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C38" s="8">
         <v>1599</v>
@@ -1625,7 +1625,7 @@
         <v>19031</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C44" s="8">
         <v>2803</v>
@@ -1667,7 +1667,7 @@
         <v>18125</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C47" s="8">
         <v>2803</v>
@@ -1681,7 +1681,7 @@
         <v>19789</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C48" s="8">
         <v>2803</v>
@@ -1695,13 +1695,13 @@
         <v>18287</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C49" s="8">
         <v>3392</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,7 +1715,7 @@
         <v>3392</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
         <v>3392</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,7 +1743,7 @@
         <v>3392</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,13 +1751,13 @@
         <v>3421</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C53" s="8">
         <v>3392</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,13 +1765,13 @@
         <v>15710</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8">
         <v>3392</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,13 +1779,13 @@
         <v>21718</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C55" s="8">
         <v>3392</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>15794</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C57" s="21">
         <v>4163</v>
@@ -1821,7 +1821,7 @@
         <v>4487</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" s="8">
         <v>4163</v>
@@ -1863,7 +1863,7 @@
         <v>6315</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C61" s="8">
         <v>4163</v>
@@ -1877,7 +1877,7 @@
         <v>6307</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="8">
         <v>4163</v>
@@ -1891,7 +1891,7 @@
         <v>21709</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C63" s="17">
         <v>4163</v>
@@ -1905,7 +1905,7 @@
         <v>9990</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C64" s="17">
         <v>4163</v>
@@ -1925,7 +1925,7 @@
         <v>13757</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,13 +1933,13 @@
         <v>5115</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C66" s="21">
         <v>13757</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,13 +1947,13 @@
         <v>20430</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C67" s="17">
         <v>13757</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,13 +1961,13 @@
         <v>15772</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C68" s="17">
         <v>13757</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1975,13 +1975,13 @@
         <v>5075</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="17">
         <v>13757</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1989,13 +1989,13 @@
         <v>21658</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C70" s="21">
         <v>13757</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
         <v>15681</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C73" s="8">
         <v>13760</v>
@@ -2059,7 +2059,7 @@
         <v>21659</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C75" s="8">
         <v>13760</v>
@@ -2107,7 +2107,7 @@
         <v>19769</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,7 +2121,7 @@
         <v>19769</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2129,41 +2129,41 @@
         <v>21048</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C80" s="8">
         <v>19769</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
-        <v>21706</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>114</v>
+        <v>21047</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="C81" s="8">
         <v>19769</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
-        <v>21047</v>
+        <v>22950</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C82" s="8">
         <v>19769</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
         <v>20189</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C83" s="8">
         <v>19772</v>
@@ -2185,7 +2185,7 @@
         <v>19793</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C84" s="8">
         <v>19772</v>
@@ -2199,7 +2199,7 @@
         <v>1116</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C85" s="8">
         <v>19772</v>
@@ -2283,7 +2283,7 @@
         <v>21707</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C91" s="8">
         <v>19772</v>
@@ -2297,7 +2297,7 @@
         <v>1257</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C92" s="8">
         <v>19772</v>
@@ -2311,7 +2311,7 @@
         <v>1535</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C93" s="8">
         <v>19772</v>
@@ -2381,7 +2381,7 @@
         <v>13766</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C98" s="8">
         <v>19774</v>
@@ -2423,7 +2423,7 @@
         <v>21728</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C101" s="8">
         <v>19774</v>
@@ -2493,7 +2493,7 @@
         <v>4910</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C106" s="3">
         <v>19775</v>
@@ -2507,7 +2507,7 @@
         <v>17535</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C107" s="3">
         <v>19775</v>
@@ -2521,7 +2521,7 @@
         <v>21721</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3">
         <v>19775</v>
@@ -2563,13 +2563,13 @@
         <v>21691</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C111" s="3">
         <v>21647</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2577,13 +2577,13 @@
         <v>21690</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C112" s="3">
         <v>21647</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2591,13 +2591,13 @@
         <v>21687</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C113" s="3">
         <v>21647</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2605,13 +2605,13 @@
         <v>21688</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C114" s="3">
         <v>21647</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2619,13 +2619,13 @@
         <v>21689</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C115" s="3">
         <v>21647</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>21647</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>21650</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C120" s="3">
         <v>21648</v>
@@ -2703,7 +2703,7 @@
         <v>21665</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C121" s="3">
         <v>21648</v>
@@ -2717,7 +2717,7 @@
         <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C122" s="3">
         <v>21648</v>
@@ -2731,13 +2731,13 @@
         <v>99998</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C123" s="3">
         <v>99998</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>99999</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C124" s="6">
         <v>99999</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2768,26 +2768,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2795,17 +2794,76 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Data d'inici de la planificació" ma:description="Data d'inici de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina començarà a aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Data de finalització de la planificació" ma:description="Data de finalització de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina deixarà d'aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2818,8 +2876,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2908,6 +2966,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2918,6 +2986,10 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C0A65C-6953-4662-A7E6-C45FE6DC0D0F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2933,24 +3005,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>

--- a/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\10.Direccions_generals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A7AA6-0E34-443B-9260-115EBB753858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD6EA9-B632-44B7-9BD7-10A29AEA8CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direccions generals" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="130">
   <si>
     <t>Nom</t>
   </si>
@@ -245,24 +245,15 @@
     <t>Direcció General de la Intervenció</t>
   </si>
   <si>
-    <t>Direcció de Serveis del Departament d'Economia i Hisenda</t>
-  </si>
-  <si>
     <t>Departament d'Igualtat i Feminismes</t>
   </si>
   <si>
-    <t>Direcció General de Cures, Organització del Temps i Equitat en els treballs.</t>
-  </si>
-  <si>
     <t>Direcció General per a l'Erradicació de les Violències Masclistes</t>
   </si>
   <si>
     <t>Direcció General de Polítiques Públiques LGBTI+</t>
   </si>
   <si>
-    <t>Direcció general per a la Promoció i Defensa dels Drets Humans</t>
-  </si>
-  <si>
     <t>Direcció General de Migracions, Refugi i Antiracisme</t>
   </si>
   <si>
@@ -326,12 +317,6 @@
     <t>Direcció General de Provisió de Serveis</t>
   </si>
   <si>
-    <t>Direcció General de Transferència del Coneixement</t>
-  </si>
-  <si>
-    <t>Direcció General d'Impacte Territorial i Social del Coneixement</t>
-  </si>
-  <si>
     <t>Secretaria General del Consell Interuniversitari de Catalunya</t>
   </si>
   <si>
@@ -350,9 +335,6 @@
     <t>Direcció General de l'Alumnat</t>
   </si>
   <si>
-    <t>Direcció General d'Educació Inclusiva i Llengües</t>
-  </si>
-  <si>
     <t>Direcció General de Planificació i Recerca en Salut</t>
   </si>
   <si>
@@ -377,9 +359,6 @@
     <t>Direcció General d'Administració Digital</t>
   </si>
   <si>
-    <t>Direcció de Serveis del Departament de Territori</t>
-  </si>
-  <si>
     <t>Direcció General d'Agenda i Renovació Urbana</t>
   </si>
   <si>
@@ -426,6 +405,24 @@
   </si>
   <si>
     <t>Direcció General d'Afers de la Unió Europea</t>
+  </si>
+  <si>
+    <t>Direcció General d'Educació Inclusiva</t>
+  </si>
+  <si>
+    <t>Direcció General de Cures, Organització del Temps i Equitat en els Treballs</t>
+  </si>
+  <si>
+    <t>Direcció General per a la Promoció i Defensa dels Drets Humans</t>
+  </si>
+  <si>
+    <t>Direcció General de Transferència i Societat del Coneixement</t>
+  </si>
+  <si>
+    <t>21711</t>
+  </si>
+  <si>
+    <t>Oficina d'Igualtat de Tracte i No-discriminació</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1188,7 @@
         <v>19819</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C13" s="8">
         <v>6</v>
@@ -1233,7 +1230,7 @@
         <v>542</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8">
         <v>6</v>
@@ -1247,7 +1244,7 @@
         <v>13599</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
@@ -1261,7 +1258,7 @@
         <v>669</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C18" s="8">
         <v>6</v>
@@ -1275,7 +1272,7 @@
         <v>674</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -1289,7 +1286,7 @@
         <v>15432</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C20" s="8">
         <v>6</v>
@@ -1303,7 +1300,7 @@
         <v>15433</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
@@ -1317,7 +1314,7 @@
         <v>11898</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C22" s="8">
         <v>6</v>
@@ -1331,7 +1328,7 @@
         <v>680</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8">
         <v>6</v>
@@ -1345,7 +1342,7 @@
         <v>685</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8">
         <v>6</v>
@@ -1359,7 +1356,7 @@
         <v>20432</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C25" s="8">
         <v>6</v>
@@ -1373,7 +1370,7 @@
         <v>11010</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8">
         <v>6</v>
@@ -1384,10 +1381,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C27" s="8">
         <v>6</v>
@@ -1513,7 +1510,7 @@
         <v>21663</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C36" s="8">
         <v>1599</v>
@@ -1527,7 +1524,7 @@
         <v>20884</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C37" s="8">
         <v>1599</v>
@@ -1541,7 +1538,7 @@
         <v>20885</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C38" s="8">
         <v>1599</v>
@@ -1625,7 +1622,7 @@
         <v>19031</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C44" s="8">
         <v>2803</v>
@@ -1667,7 +1664,7 @@
         <v>18125</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" s="8">
         <v>2803</v>
@@ -1681,7 +1678,7 @@
         <v>19789</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C48" s="8">
         <v>2803</v>
@@ -1695,13 +1692,13 @@
         <v>18287</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C49" s="8">
         <v>3392</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,7 +1712,7 @@
         <v>3392</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,7 +1726,7 @@
         <v>3392</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,7 +1740,7 @@
         <v>3392</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,13 +1748,13 @@
         <v>3421</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C53" s="8">
         <v>3392</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,13 +1762,13 @@
         <v>15710</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C54" s="8">
         <v>3392</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,13 +1776,13 @@
         <v>21718</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C55" s="8">
         <v>3392</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1863,7 +1860,7 @@
         <v>6315</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C61" s="8">
         <v>4163</v>
@@ -1877,7 +1874,7 @@
         <v>6307</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C62" s="8">
         <v>4163</v>
@@ -1891,7 +1888,7 @@
         <v>21709</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C63" s="17">
         <v>4163</v>
@@ -1905,7 +1902,7 @@
         <v>9990</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C64" s="17">
         <v>4163</v>
@@ -1925,7 +1922,7 @@
         <v>13757</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,13 +1930,13 @@
         <v>5115</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" s="21">
         <v>13757</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,13 +1944,13 @@
         <v>20430</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" s="17">
         <v>13757</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,13 +1958,13 @@
         <v>15772</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C68" s="17">
         <v>13757</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1975,13 +1972,13 @@
         <v>5075</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="17">
         <v>13757</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1989,13 +1986,13 @@
         <v>21658</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C70" s="21">
         <v>13757</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2031,7 +2028,7 @@
         <v>15681</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C73" s="8">
         <v>13760</v>
@@ -2107,7 +2104,7 @@
         <v>19769</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,7 +2118,7 @@
         <v>19769</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2129,13 +2126,13 @@
         <v>21048</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C80" s="8">
         <v>19769</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,13 +2140,13 @@
         <v>21047</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C81" s="8">
         <v>19769</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2157,13 +2154,13 @@
         <v>22950</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C82" s="8">
         <v>19769</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2185,7 +2182,7 @@
         <v>19793</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C84" s="8">
         <v>19772</v>
@@ -2199,7 +2196,7 @@
         <v>1116</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C85" s="8">
         <v>19772</v>
@@ -2283,7 +2280,7 @@
         <v>21707</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C91" s="8">
         <v>19772</v>
@@ -2297,7 +2294,7 @@
         <v>1257</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C92" s="8">
         <v>19772</v>
@@ -2311,7 +2308,7 @@
         <v>1535</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C93" s="8">
         <v>19772</v>
@@ -2381,7 +2378,7 @@
         <v>13766</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C98" s="8">
         <v>19774</v>
@@ -2423,7 +2420,7 @@
         <v>21728</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C101" s="8">
         <v>19774</v>
@@ -2493,7 +2490,7 @@
         <v>4910</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C106" s="3">
         <v>19775</v>
@@ -2507,7 +2504,7 @@
         <v>17535</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C107" s="3">
         <v>19775</v>
@@ -2521,7 +2518,7 @@
         <v>21721</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C108" s="3">
         <v>19775</v>
@@ -2563,13 +2560,13 @@
         <v>21691</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C111" s="3">
         <v>21647</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2577,13 +2574,13 @@
         <v>21690</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C112" s="3">
         <v>21647</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2591,13 +2588,13 @@
         <v>21687</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C113" s="3">
         <v>21647</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2605,13 +2602,13 @@
         <v>21688</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C114" s="3">
         <v>21647</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2619,13 +2616,13 @@
         <v>21689</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C115" s="3">
         <v>21647</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2639,29 +2636,29 @@
         <v>21647</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="8">
-        <v>131</v>
+      <c r="A117" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C117" s="3">
-        <v>21648</v>
+        <v>21647</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C118" s="3">
         <v>21648</v>
@@ -2671,11 +2668,11 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="18">
-        <v>21715</v>
+      <c r="A119" s="8">
+        <v>139</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C119" s="3">
         <v>21648</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
-        <v>21650</v>
+        <v>21715</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C120" s="3">
         <v>21648</v>
@@ -2700,10 +2697,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
-        <v>21665</v>
+        <v>21650</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C121" s="3">
         <v>21648</v>
@@ -2717,7 +2714,7 @@
         <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C122" s="3">
         <v>21648</v>
@@ -2731,13 +2728,13 @@
         <v>99998</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C123" s="3">
         <v>99998</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2745,13 +2742,13 @@
         <v>99999</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C124" s="6">
         <v>99999</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2768,6 +2765,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -2966,16 +2973,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2986,10 +2983,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C0A65C-6953-4662-A7E6-C45FE6DC0D0F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3001,8 +2994,13 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D4DE8A9-A623-42FB-8DF8-3E8AD3E8CC34}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\portal\content\plataformes\dadesref\entitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_57B6197D6EB521B9B378A6E8C71E2A404A3CFFEF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DBEBB1-1066-4C47-84A7-6502B755A95C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12000"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direccions" sheetId="3" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>id_Direcció</t>
   </si>
@@ -121,6 +122,153 @@
     <t>Direcció General de Comunicació del Govern</t>
   </si>
   <si>
+    <t>Direcció General de Professorat i Personal de Centres Públics</t>
+  </si>
+  <si>
+    <t>Direcció General de Centres Públics</t>
+  </si>
+  <si>
+    <t>Direcció General de Centres Concertats i Centres Privats</t>
+  </si>
+  <si>
+    <t>Direcció General d'Innovació, Digitalització i Currículum</t>
+  </si>
+  <si>
+    <t>Direcció General d'Educació Inclusiva</t>
+  </si>
+  <si>
+    <t>Direcció General d'Atenció a la Família i Comunitat Educativa</t>
+  </si>
+  <si>
+    <t>Direcció General de l'Alumnat</t>
+  </si>
+  <si>
+    <t>Direcció General de Formació Professional</t>
+  </si>
+  <si>
+    <t>Direcció General del Patrimoni Cultural</t>
+  </si>
+  <si>
+    <t>Direcció General de Promoció Cultural i Biblioteques</t>
+  </si>
+  <si>
+    <t>Direcció General de Cultura Popular i Associacionisme Cultural</t>
+  </si>
+  <si>
+    <t>Direcció General d'Innovació i Cultura Digital</t>
+  </si>
+  <si>
+    <t>Direcció General d'Ordenació i Regulació Sanitària</t>
+  </si>
+  <si>
+    <t>Direcció General de Professionals de la Salut</t>
+  </si>
+  <si>
+    <t>Direcció General de Planificació i Recerca en Salut</t>
+  </si>
+  <si>
+    <t>Direcció General d'Estratègia, Difusió i Comunicació de Salut</t>
+  </si>
+  <si>
+    <t>Direcció General d'Infraestructures de Mobilitat</t>
+  </si>
+  <si>
+    <t>Direcció General de Transports i Mobilitat</t>
+  </si>
+  <si>
+    <t>Direcció General d'Ordenació del Territori, Urbanisme i Arquitectura</t>
+  </si>
+  <si>
+    <t>Direcció General de Polítiques del Litoral</t>
+  </si>
+  <si>
+    <t>Direcció General de Polítiques de Muntanya</t>
+  </si>
+  <si>
+    <t>Direcció General d'Habitatge</t>
+  </si>
+  <si>
+    <t>Direcció General de Canvi Climàtic i Qualitat Ambiental</t>
+  </si>
+  <si>
+    <t>Direcció General de Polítiques Ambientals i Medi Natural</t>
+  </si>
+  <si>
+    <t>Direcció General d'Energia</t>
+  </si>
+  <si>
+    <t>Direcció General de Transició Hídrica</t>
+  </si>
+  <si>
+    <t>Consell Assessor per al Desenvolupament Sostenible</t>
+  </si>
+  <si>
+    <t>Direcció General d'Agricultura i Ramaderia</t>
+  </si>
+  <si>
+    <t>Direcció General d'Empreses Agroalimentàries, Qualitat i Gastronomia</t>
+  </si>
+  <si>
+    <t>Direcció General de Política Marítima i Pesca Sostenible</t>
+  </si>
+  <si>
+    <t>Direcció General de Boscos i Gestió del Medi</t>
+  </si>
+  <si>
+    <t>Direcció General de Desenvolupament Rural</t>
+  </si>
+  <si>
+    <t>Direcció General de Regadius i Espais Agraris</t>
+  </si>
+  <si>
+    <t>Direcció General de Dret, Entitats Jurídiques i Mediació</t>
+  </si>
+  <si>
+    <t>Direcció General de Memòria Democràtica</t>
+  </si>
+  <si>
+    <t>Direcció General d'Afers Religiosos</t>
+  </si>
+  <si>
+    <t>Direcció General de Modernització de l'Administració de Justícia</t>
+  </si>
+  <si>
+    <t>Direcció General d'Execució Penal a la Comunitat i de Justícia Juvenil</t>
+  </si>
+  <si>
+    <t>Direcció General d'Afers Penitenciaris</t>
+  </si>
+  <si>
+    <t>Direcció General de Prevenció, Extinció d'Incendis i Salvaments</t>
+  </si>
+  <si>
+    <t>Direcció General de la Policia</t>
+  </si>
+  <si>
+    <t>Direcció General de Protecció Civil</t>
+  </si>
+  <si>
+    <t>Direcció General d'Administració de Seguretat</t>
+  </si>
+  <si>
+    <t>Direcció General de Coordinació de les Policies Locals</t>
+  </si>
+  <si>
+    <t>Direcció General dels Agents Rurals</t>
+  </si>
+  <si>
+    <t>Direcció General de la Catalunya Exterior</t>
+  </si>
+  <si>
+    <t>Direcció General de l'Acció Exterior</t>
+  </si>
+  <si>
+    <t>Direcció General d'Afers de la Unió Europea</t>
+  </si>
+  <si>
+    <t>Direcció General de Cooperació al Desenvolupament</t>
+  </si>
+  <si>
     <t>Assessoria Jurídica</t>
   </si>
   <si>
@@ -151,109 +299,7 @@
     <t>Direcció General de la Intervenció</t>
   </si>
   <si>
-    <t>Direcció General de Prevenció, Extinció d'Incendis i Salvaments</t>
-  </si>
-  <si>
-    <t>Direcció General de la Policia</t>
-  </si>
-  <si>
-    <t>Direcció General de Protecció Civil</t>
-  </si>
-  <si>
-    <t>Direcció General d'Administració de Seguretat</t>
-  </si>
-  <si>
-    <t>Direcció General de Coordinació de les Policies Locals</t>
-  </si>
-  <si>
-    <t>Direcció General dels Agents Rurals</t>
-  </si>
-  <si>
-    <t>Direcció General de Dret, Entitats Jurídiques i Mediació</t>
-  </si>
-  <si>
-    <t>Direcció General de Memòria Democràtica</t>
-  </si>
-  <si>
-    <t>Direcció General d'Afers Religiosos</t>
-  </si>
-  <si>
-    <t>Direcció General de Modernització de l'Administració de Justícia</t>
-  </si>
-  <si>
-    <t>Direcció General d'Execució Penal a la Comunitat i de Justícia Juvenil</t>
-  </si>
-  <si>
-    <t>Direcció General d'Afers Penitenciaris</t>
-  </si>
-  <si>
-    <t>Direcció General d'Infraestructures de Mobilitat</t>
-  </si>
-  <si>
-    <t>Direcció General de Transports i Mobilitat</t>
-  </si>
-  <si>
-    <t>Direcció General d'Ordenació del Territori, Urbanisme i Arquitectura</t>
-  </si>
-  <si>
-    <t>Direcció General de Polítiques del Litoral</t>
-  </si>
-  <si>
-    <t>Direcció General de Polítiques de Muntanya</t>
-  </si>
-  <si>
-    <t>Direcció General d'Habitatge</t>
-  </si>
-  <si>
-    <t>Direcció General de Canvi Climàtic i Qualitat Ambiental</t>
-  </si>
-  <si>
-    <t>Direcció General de Polítiques Ambientals i Medi Natural</t>
-  </si>
-  <si>
-    <t>Direcció General d'Energia</t>
-  </si>
-  <si>
-    <t>Direcció General de Transició Hídrica</t>
-  </si>
-  <si>
-    <t>Consell Assessor per al Desenvolupament Sostenible</t>
-  </si>
-  <si>
-    <t>Direcció General d'Ordenació i Regulació Sanitària</t>
-  </si>
-  <si>
-    <t>Direcció General de Professionals de la Salut</t>
-  </si>
-  <si>
-    <t>Direcció General de Planificació i Recerca en Salut</t>
-  </si>
-  <si>
-    <t>Direcció General d'Estratègia, Difusió i Comunicació de Salut</t>
-  </si>
-  <si>
-    <t>Direcció General de Professorat i Personal de Centres Públics</t>
-  </si>
-  <si>
-    <t>Direcció General de Centres Públics</t>
-  </si>
-  <si>
-    <t>Direcció General de Centres Concertats i Centres Privats</t>
-  </si>
-  <si>
-    <t>Direcció General d'Innovació, Digitalització i Currículum</t>
-  </si>
-  <si>
-    <t>Direcció General d'Educació Inclusiva</t>
-  </si>
-  <si>
-    <t>Direcció General d'Atenció a la Família i Comunitat Educativa</t>
-  </si>
-  <si>
-    <t>Direcció General de l'Alumnat</t>
-  </si>
-  <si>
-    <t>Direcció General de Formació Professional</t>
+    <t>Direcció General d'Activitat Econòmica</t>
   </si>
   <si>
     <t>Direcció General de Prestacions Socials</t>
@@ -319,18 +365,6 @@
     <t>Direcció General de Cures, Organització del Temps i Equitat en els Treballs</t>
   </si>
   <si>
-    <t>Direcció General de la Catalunya Exterior</t>
-  </si>
-  <si>
-    <t>Direcció General de l'Acció Exterior</t>
-  </si>
-  <si>
-    <t>Direcció General d'Afers de la Unió Europea</t>
-  </si>
-  <si>
-    <t>Direcció General de Cooperació al Desenvolupament</t>
-  </si>
-  <si>
     <t>Direcció General d'Universitats</t>
   </si>
   <si>
@@ -343,37 +377,10 @@
     <t>Secretaria General del Consell Interuniversitari de Catalunya</t>
   </si>
   <si>
-    <t>Direcció General d'Agricultura i Ramaderia</t>
-  </si>
-  <si>
-    <t>Direcció General d'Empreses Agroalimentàries, Qualitat i Gastronomia</t>
-  </si>
-  <si>
-    <t>Direcció General de Política Marítima i Pesca Sostenible</t>
-  </si>
-  <si>
-    <t>Direcció General de Boscos i Gestió del Medi</t>
-  </si>
-  <si>
-    <t>Direcció General del Patrimoni Cultural</t>
-  </si>
-  <si>
-    <t>Direcció General de Promoció Cultural i Biblioteques</t>
-  </si>
-  <si>
-    <t>Direcció General de Cultura Popular i Associacionisme Cultural</t>
-  </si>
-  <si>
-    <t>Direcció General d'Innovació i Cultura Digital</t>
-  </si>
-  <si>
     <t>Direcció General d'Accés al Coneixement i Impuls de l'Ús del Català</t>
   </si>
   <si>
     <t>Direcció General de Política Lingüística en els Àmbits Tecnològic i Audiovisual</t>
-  </si>
-  <si>
-    <t>Direcció General d'Activitat Econòmica</t>
   </si>
   <si>
     <t>No consta</t>
@@ -385,8 +392,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -837,6 +844,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -882,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -899,18 +915,20 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="26" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,11 +1029,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Taula2" displayName="Taula2" ref="A1:C126" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taula2" displayName="Taula2" ref="A1:C128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C128" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
+    <sortCondition ref="C1:C128"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="id_Direcció" dataDxfId="2"/>
-    <tableColumn id="2" name="Nom_Direcció" dataDxfId="1"/>
-    <tableColumn id="5" name="id_Departament" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_Direcció" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom_Direcció" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_Departament" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1283,14 +1305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1298,7 +1320,7 @@
     <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>35</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>669</v>
       </c>
@@ -1331,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>674</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>680</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>685</v>
       </c>
@@ -1364,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>11898</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>15432</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>15433</v>
       </c>
@@ -1397,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>20432</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>13599</v>
       </c>
@@ -1419,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>542</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>648</v>
       </c>
@@ -1441,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>12768</v>
       </c>
@@ -1452,7 +1474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>20946</v>
       </c>
@@ -1463,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>19786</v>
       </c>
@@ -1485,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>727</v>
       </c>
@@ -1496,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>12720</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>20437</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>19785</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="4">
         <v>23505</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>13775</v>
       </c>
@@ -1551,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>19784</v>
       </c>
@@ -1562,7 +1584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>13803</v>
       </c>
@@ -1573,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>11747</v>
       </c>
@@ -1584,328 +1606,328 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="2">
-        <v>1116</v>
+        <v>13958</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="2">
-        <v>1257</v>
+        <v>18122</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" s="2">
-        <v>1488</v>
+        <v>18121</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="2">
-        <v>1300</v>
+        <v>18123</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="2">
-        <v>1274</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>20884</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" s="2">
-        <v>18135</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>20885</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="2">
-        <v>19793</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>15704</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="2">
-        <v>21707</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>21663</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="2">
-        <v>1344</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>11387</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="2">
-        <v>1535</v>
+        <v>11475</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="2">
+        <v>2284</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>20189</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>13795</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C38" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="2">
-        <v>8042</v>
+        <v>2388</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="2">
-        <v>866</v>
+        <v>21672</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="2">
-        <v>15681</v>
+        <v>11240</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="2">
+        <v>18125</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>18156</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="2">
+        <v>19789</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>21659</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="2">
+        <v>19031</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>20185</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="2">
+        <v>21661</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>13813</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="2">
+        <v>3421</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>5115</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="2">
+        <v>3626</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>20430</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="2">
+        <v>3520</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>11010</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="2">
+        <v>18287</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>15772</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="4">
+        <v>23483</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>5075</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="2">
+        <v>19852</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>21658</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="4">
+        <v>23484</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C51" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>3421</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C52" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15">
       <c r="A53" s="2">
-        <v>3626</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>6315</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15">
       <c r="A54" s="2">
-        <v>3520</v>
-      </c>
-      <c r="B54" s="2" t="s">
+        <v>6307</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15">
       <c r="A55" s="2">
-        <v>18287</v>
-      </c>
-      <c r="B55" s="2" t="s">
+        <v>21709</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15">
       <c r="A56" s="4">
-        <v>23483</v>
+        <v>23486</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>53</v>
@@ -1914,773 +1936,795 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15">
       <c r="A57" s="2">
-        <v>19852</v>
-      </c>
-      <c r="B57" s="7" t="s">
+        <v>9990</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>23484</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="2">
+        <v>11292</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
       <c r="A59" s="2">
-        <v>6315</v>
-      </c>
-      <c r="B59" s="8" t="s">
+        <v>15794</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
       <c r="A60" s="2">
-        <v>6307</v>
-      </c>
-      <c r="B60" s="8" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
       <c r="A61" s="2">
-        <v>21709</v>
-      </c>
-      <c r="B61" s="8" t="s">
+        <v>12985</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>23486</v>
-      </c>
-      <c r="B62" s="6" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="2">
+        <v>10900</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="2">
+        <v>23560</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>9990</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="10">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="2">
+        <v>23561</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>11240</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="10">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="2">
+        <v>13813</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>18125</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="2">
+        <v>5115</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>19789</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="2">
+        <v>20430</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>19031</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="2">
+        <v>11010</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>21661</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="2">
+        <v>15772</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>13958</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C69" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
       <c r="A70" s="2">
-        <v>18122</v>
+        <v>5075</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" s="2">
-        <v>18121</v>
+        <v>21658</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C71" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
       <c r="A72" s="2">
-        <v>18123</v>
+        <v>13795</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="2">
+        <v>8042</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>20884</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="2">
+        <v>866</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>20885</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" s="2">
+        <v>15681</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>15704</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="2">
+        <v>18156</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>21663</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="2">
+        <v>21659</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>11387</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="C77" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="2">
+        <v>20185</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="C78" s="2">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="2">
+        <v>19802</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="2">
+        <v>21047</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="2">
+        <v>21048</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="2">
+        <v>22950</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="2">
+        <v>15754</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="2">
+        <v>1257</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86" s="2">
+        <v>1488</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="2">
+        <v>1300</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" s="2">
+        <v>1274</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="2">
+        <v>18135</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="2">
+        <v>19793</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="2">
+        <v>21707</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="2">
+        <v>1344</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="2">
+        <v>1535</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15">
+      <c r="A94" s="2">
+        <v>20189</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95" s="2">
+        <v>23520</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="10">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="2">
         <v>10646</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C96" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="2">
         <v>21281</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="98" spans="1:3" ht="15">
+      <c r="A98" s="2">
         <v>21689</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B98" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99" s="2">
         <v>5921</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="2">
         <v>21728</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="B100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="101" spans="1:3" ht="15">
+      <c r="A101" s="2">
         <v>20854</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="B101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102" s="2">
         <v>18103</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="2">
         <v>5157</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="2">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>13766</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="2">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>13850</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>13829</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>5457</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>5483</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>4857</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>4910</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>17535</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>23513</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>19934</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>21681</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>21687</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>21688</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>21711</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>21690</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>21691</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>19802</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>21047</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C103" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" s="2">
-        <v>21048</v>
+        <v>13766</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19774</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15">
       <c r="A105" s="2">
-        <v>22950</v>
+        <v>13850</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="2">
+        <v>13829</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>15754</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="2">
+        <v>5457</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>21715</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C107" s="2">
-        <v>21648</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
       <c r="A108" s="2">
-        <v>131</v>
+        <v>5483</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C108" s="2">
-        <v>21648</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" s="2">
-        <v>139</v>
+        <v>4857</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C109" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110" s="2">
+        <v>4910</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111" s="2">
+        <v>17535</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
+      <c r="A112" s="4">
+        <v>23513</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15">
+      <c r="A113" s="2">
+        <v>19934</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15">
+      <c r="A114" s="2">
+        <v>21681</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15">
+      <c r="A115" s="2">
+        <v>21687</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15">
+      <c r="A116" s="2">
+        <v>21688</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15">
+      <c r="A117" s="2">
+        <v>21711</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15">
+      <c r="A118" s="2">
+        <v>21690</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15">
+      <c r="A119" s="2">
+        <v>21691</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15">
+      <c r="A120" s="2">
+        <v>21715</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2">
         <v>21648</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    <row r="121" spans="1:3" ht="15">
+      <c r="A121" s="2">
+        <v>131</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="2">
+        <v>21648</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15">
+      <c r="A122" s="2">
+        <v>139</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="2">
+        <v>21648</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123" s="2">
         <v>21650</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="B123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="2">
         <v>21648</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="124" spans="1:3" ht="15">
+      <c r="A124" s="2">
         <v>116</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="2">
+      <c r="B124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="2">
         <v>21648</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>11292</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>15794</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>4487</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>12985</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C115" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>10900</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>11475</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="2">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>2284</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118" s="2">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>2340</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="2">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="11">
-        <v>2388</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="11">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="11">
-        <v>21672</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" s="11">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="12">
+    <row r="125" spans="1:3" ht="15">
+      <c r="A125" s="10">
         <v>23537</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="12">
+      <c r="B125" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="10">
         <v>23458</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="12">
+    <row r="126" spans="1:3" ht="15">
+      <c r="A126" s="10">
         <v>23538</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="12">
+      <c r="B126" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="10">
         <v>23458</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="11">
-        <v>23520</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="12">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+    <row r="127" spans="1:3" ht="15">
+      <c r="A127" s="13">
         <v>99998</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C125" s="15">
+      <c r="B127" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="13">
         <v>99998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="15">
+    <row r="128" spans="1:3" ht="15">
+      <c r="A128" s="13">
         <v>99999</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C126" s="15">
+      <c r="B128" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="13">
         <v>99999</v>
       </c>
     </row>
@@ -2930,45 +2974,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB76BB7-A5E0-42B5-8F9C-54E360379F23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB76BB7-A5E0-42B5-8F9C-54E360379F23}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22A1D26-753D-47B6-B795-47A9FED2D83E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22A1D26-753D-47B6-B795-47A9FED2D83E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D8F76E-6805-4F68-A95B-BEF2D98BAF4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D8F76E-6805-4F68-A95B-BEF2D98BAF4C}"/>
 </file>
--- a/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/plataformes/dadesref/entitats/Direccions_Generals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_57B6197D6EB521B9B378A6E8C71E2A404A3CFFEF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DBEBB1-1066-4C47-84A7-6502B755A95C}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_57B6197D6EB521B9B378A6E8C71E2A404A3CFFEF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D025F905-4149-41D0-A7C3-9A9C7BAA695E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>id_Direcció</t>
   </si>
@@ -260,13 +260,16 @@
     <t>Direcció General de la Catalunya Exterior</t>
   </si>
   <si>
-    <t>Direcció General de l'Acció Exterior</t>
+    <t>Direcció General d’Afers Multilaterals</t>
   </si>
   <si>
     <t>Direcció General d'Afers de la Unió Europea</t>
   </si>
   <si>
     <t>Direcció General de Cooperació al Desenvolupament</t>
+  </si>
+  <si>
+    <t>Direcció General de Coordinació Institucional en l’Àmbit de l’Acció Exterior</t>
   </si>
   <si>
     <t>Assessoria Jurídica</t>
@@ -898,7 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -927,8 +930,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1029,10 +1036,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taula2" displayName="Taula2" ref="A1:C128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C128" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
-    <sortCondition ref="C1:C128"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taula2" displayName="Taula2" ref="A1:C129" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C129" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C129">
+    <sortCondition ref="C1:C129"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_Direcció" dataDxfId="2"/>
@@ -1306,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -2006,7 +2013,7 @@
       <c r="A63" s="2">
         <v>23560</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C63" s="10">
@@ -2017,7 +2024,7 @@
       <c r="A64" s="2">
         <v>23561</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="10">
@@ -2234,22 +2241,22 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="15">
-      <c r="A84" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="2">
-        <v>19772</v>
+      <c r="A84" s="19">
+        <v>23567</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="19">
+        <v>19769</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="2">
-        <v>1257</v>
+        <v>1116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C85" s="2">
         <v>19772</v>
@@ -2257,7 +2264,7 @@
     </row>
     <row r="86" spans="1:3" ht="15">
       <c r="A86" s="2">
-        <v>1488</v>
+        <v>1257</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>78</v>
@@ -2268,7 +2275,7 @@
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" s="2">
-        <v>1300</v>
+        <v>1488</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
@@ -2279,7 +2286,7 @@
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="2">
-        <v>1274</v>
+        <v>1300</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>80</v>
@@ -2290,7 +2297,7 @@
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="2">
-        <v>18135</v>
+        <v>1274</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>81</v>
@@ -2301,7 +2308,7 @@
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="2">
-        <v>19793</v>
+        <v>18135</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>82</v>
@@ -2312,7 +2319,7 @@
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="2">
-        <v>21707</v>
+        <v>19793</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>83</v>
@@ -2323,7 +2330,7 @@
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="2">
-        <v>1344</v>
+        <v>21707</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>84</v>
@@ -2334,7 +2341,7 @@
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="2">
-        <v>1535</v>
+        <v>1344</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>85</v>
@@ -2345,7 +2352,7 @@
     </row>
     <row r="94" spans="1:3" ht="15">
       <c r="A94" s="2">
-        <v>20189</v>
+        <v>1535</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>86</v>
@@ -2356,32 +2363,32 @@
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="2">
-        <v>23520</v>
-      </c>
-      <c r="B95" s="12" t="s">
+        <v>20189</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="2">
         <v>19772</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="2">
-        <v>10646</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2">
-        <v>19774</v>
+        <v>23520</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="10">
+        <v>19772</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="2">
-        <v>21281</v>
+        <v>10646</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C97" s="2">
         <v>19774</v>
@@ -2389,9 +2396,9 @@
     </row>
     <row r="98" spans="1:3" ht="15">
       <c r="A98" s="2">
-        <v>21689</v>
-      </c>
-      <c r="B98" s="9" t="s">
+        <v>21281</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C98" s="2">
@@ -2400,9 +2407,9 @@
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="2">
-        <v>5921</v>
-      </c>
-      <c r="B99" s="2" t="s">
+        <v>21689</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C99" s="2">
@@ -2411,7 +2418,7 @@
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="2">
-        <v>21728</v>
+        <v>5921</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>91</v>
@@ -2422,7 +2429,7 @@
     </row>
     <row r="101" spans="1:3" ht="15">
       <c r="A101" s="2">
-        <v>20854</v>
+        <v>21728</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>92</v>
@@ -2433,7 +2440,7 @@
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="2">
-        <v>18103</v>
+        <v>20854</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>93</v>
@@ -2444,7 +2451,7 @@
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" s="2">
-        <v>5157</v>
+        <v>18103</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>94</v>
@@ -2455,7 +2462,7 @@
     </row>
     <row r="104" spans="1:3" ht="15">
       <c r="A104" s="2">
-        <v>13766</v>
+        <v>5157</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>95</v>
@@ -2466,21 +2473,21 @@
     </row>
     <row r="105" spans="1:3" ht="15">
       <c r="A105" s="2">
-        <v>13850</v>
+        <v>13766</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2">
-        <v>19775</v>
+        <v>19774</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="2">
-        <v>13829</v>
+        <v>13850</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C106" s="2">
         <v>19775</v>
@@ -2488,7 +2495,7 @@
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" s="2">
-        <v>5457</v>
+        <v>13829</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>97</v>
@@ -2499,7 +2506,7 @@
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="2">
-        <v>5483</v>
+        <v>5457</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>98</v>
@@ -2510,7 +2517,7 @@
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="2">
-        <v>4857</v>
+        <v>5483</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>99</v>
@@ -2521,9 +2528,9 @@
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="2">
-        <v>4910</v>
-      </c>
-      <c r="B110" s="1" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C110" s="2">
@@ -2532,7 +2539,7 @@
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="2">
-        <v>17535</v>
+        <v>4910</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>101</v>
@@ -2542,10 +2549,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
-      <c r="A112" s="4">
-        <v>23513</v>
-      </c>
-      <c r="B112" s="6" t="s">
+      <c r="A112" s="2">
+        <v>17535</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C112" s="2">
@@ -2553,10 +2560,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="15">
-      <c r="A113" s="2">
-        <v>19934</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="4">
+        <v>23513</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C113" s="2">
@@ -2565,21 +2572,21 @@
     </row>
     <row r="114" spans="1:3" ht="15">
       <c r="A114" s="2">
-        <v>21681</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
+        <v>19934</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C114" s="2">
-        <v>21647</v>
+        <v>19775</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15">
       <c r="A115" s="2">
-        <v>21687</v>
+        <v>21681</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C115" s="2">
         <v>21647</v>
@@ -2587,7 +2594,7 @@
     </row>
     <row r="116" spans="1:3" ht="15">
       <c r="A116" s="2">
-        <v>21688</v>
+        <v>21687</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>105</v>
@@ -2598,7 +2605,7 @@
     </row>
     <row r="117" spans="1:3" ht="15">
       <c r="A117" s="2">
-        <v>21711</v>
+        <v>21688</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>106</v>
@@ -2609,7 +2616,7 @@
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" s="2">
-        <v>21690</v>
+        <v>21711</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>107</v>
@@ -2620,7 +2627,7 @@
     </row>
     <row r="119" spans="1:3" ht="15">
       <c r="A119" s="2">
-        <v>21691</v>
+        <v>21690</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>108</v>
@@ -2631,21 +2638,21 @@
     </row>
     <row r="120" spans="1:3" ht="15">
       <c r="A120" s="2">
-        <v>21715</v>
+        <v>21691</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C120" s="2">
-        <v>21648</v>
+        <v>21647</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15">
       <c r="A121" s="2">
-        <v>131</v>
+        <v>21715</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="C121" s="2">
         <v>21648</v>
@@ -2653,7 +2660,7 @@
     </row>
     <row r="122" spans="1:3" ht="15">
       <c r="A122" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>110</v>
@@ -2664,7 +2671,7 @@
     </row>
     <row r="123" spans="1:3" ht="15">
       <c r="A123" s="2">
-        <v>21650</v>
+        <v>139</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>111</v>
@@ -2675,7 +2682,7 @@
     </row>
     <row r="124" spans="1:3" ht="15">
       <c r="A124" s="2">
-        <v>116</v>
+        <v>21650</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>112</v>
@@ -2685,19 +2692,19 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15">
-      <c r="A125" s="10">
-        <v>23537</v>
-      </c>
-      <c r="B125" s="11" t="s">
+      <c r="A125" s="2">
+        <v>116</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C125" s="10">
-        <v>23458</v>
+      <c r="C125" s="2">
+        <v>21648</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15">
       <c r="A126" s="10">
-        <v>23538</v>
+        <v>23537</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>114</v>
@@ -2707,24 +2714,35 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15">
-      <c r="A127" s="13">
-        <v>99998</v>
-      </c>
-      <c r="B127" s="17" t="s">
+      <c r="A127" s="10">
+        <v>23538</v>
+      </c>
+      <c r="B127" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C127" s="13">
-        <v>99998</v>
+      <c r="C127" s="10">
+        <v>23458</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15">
       <c r="A128" s="13">
+        <v>99998</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="13">
+        <v>99998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15">
+      <c r="A129" s="13">
         <v>99999</v>
       </c>
-      <c r="B128" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="13">
+      <c r="B129" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" s="13">
         <v>99999</v>
       </c>
     </row>
@@ -2738,15 +2756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
@@ -2754,6 +2763,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2974,11 +2992,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB76BB7-A5E0-42B5-8F9C-54E360379F23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22A1D26-753D-47B6-B795-47A9FED2D83E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22A1D26-753D-47B6-B795-47A9FED2D83E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB76BB7-A5E0-42B5-8F9C-54E360379F23}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
